--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030507.773350552</v>
+        <v>3134687.407801624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.5927128605189</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>48.50327992928684</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>58.09226054214852</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>259.0938222390145</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.78083674902027</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>26.38956926516232</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>158.6853136035326</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>326.4523041199386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>292.9590512539098</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>38.54905110173169</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>1.839588425940237</v>
+        <v>127.1477159870288</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>60.86846495359855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>33.38664646283016</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456784</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>141.2342243404105</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.4076860934765</v>
+        <v>98.42683230404785</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8796921214428</v>
+        <v>125.5687591261415</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>84.72447871629717</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>93.07916359105415</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5034532829751</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>211.1474991249032</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3557,16 +3559,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.01175877060144</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>123.7971820797027</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>233.6429777516393</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4566717128375</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>78.71385496658196</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3276.612609559387</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.308520734405</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4452,7 +4454,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3075.240886383323</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>2785.823716346362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.3613929424835</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133545</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133545</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X7" t="n">
-        <v>383.3613929424835</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.3613929424835</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1486.072305357835</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2621.077176004519</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2230.937844028707</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064744</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080124</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>253.3636454708711</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>105.450551888478</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>105.450551888478</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4999,13 +5001,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5020,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,58 +5032,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,10 +5126,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
         <v>1540.888753373306</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309957</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>943.5102657467545</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576786</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597682</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,19 +6314,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.7309773356195</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909563</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E34" t="n">
-        <v>334.7259677085632</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>187.8360202106528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>187.8360202106528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>2389.334518447046</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>2884.660124662805</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4227.652312159533</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4227.652312159533</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953646</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932954</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7400,55 +7402,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>989.3306680894888</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>820.3944851615819</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>670.2778457492461</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1608.876909444017</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.459739407057</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>250.2980548978878</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>23.83108638657407</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>191.2691783702294</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659049</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.176967258618276</v>
+        <v>120.1578210480469</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.257951202385186</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>61.709483930272</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.21554925516973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>41.11201973523728</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.257951202385016</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>40.25407754796408</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.49466557218867</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.97729093373162</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>173.4237883572461</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
@@ -26338,19 +26340,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287552</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26445,13 +26447,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617903</v>
+        <v>-811863.8817617904</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.863965802</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.863965802</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.699125601</v>
+        <v>263671.6991256009</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329567</v>
+        <v>589084.1609329565</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329567</v>
+        <v>589084.1609329564</v>
       </c>
       <c r="H6" t="n">
         <v>589084.1609329564</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329567</v>
+        <v>589084.1609329566</v>
       </c>
       <c r="J6" t="n">
-        <v>371552.9585356791</v>
+        <v>371552.958535679</v>
       </c>
       <c r="K6" t="n">
+        <v>589084.160932956</v>
+      </c>
+      <c r="L6" t="n">
         <v>589084.1609329565</v>
       </c>
-      <c r="L6" t="n">
-        <v>589084.1609329563</v>
-      </c>
       <c r="M6" t="n">
-        <v>504029.1329974443</v>
+        <v>504029.1329974447</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329563</v>
+        <v>589084.1609329561</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329564</v>
+        <v>589084.160932956</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329561</v>
+        <v>589084.160932956</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,16 +26712,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.1411288029617</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>60.68448185888899</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>194.0453827816795</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>110.6372784394545</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.4571019070333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>199.3200861238748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>59.89933974856214</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.28153754354202</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>88.97131881835202</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>127.4767571572965</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31844,13 +31846,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>710.7237876039896</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>161.7871425275306</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,7 +33034,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,7 +33508,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093083</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>710.7237876039896</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>428.6149474293395</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819714</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819714</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>290.0605676494653</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134687.407801624</v>
+        <v>3130674.79778763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>152.5938874041462</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>48.50327992928684</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107927</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>58.09226054214852</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>283.974680806263</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>259.0938222390145</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.5594962886086</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.6853136035326</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>292.9590512539098</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.47750671193654</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.54905110173169</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.08802744677254</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>127.1477159870288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.6930519056948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>41.01175877060098</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.38664646283016</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.2342243404105</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>98.42683230404785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>125.5687591261415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>84.72447871629717</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>107.5034532829751</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>41.01175877060144</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6429777516393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>140.9357387834172</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
-        <v>119.4566717128375</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1474.490862537738</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1088.702609939494</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>677.7167051498861</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>262.6442549948826</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3276.612609559387</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3070.634861943609</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3070.634861943609</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>3070.634861943609</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2717.866206673495</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2717.866206673495</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4454,7 +4454,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2785.823716346362</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>2785.823716346362</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>2785.823716346362</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>2785.823716346362</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>2638.933768848452</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3075.240886383323</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>2785.823716346362</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>2785.823716346362</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2785.823716346362</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>353.3552283577016</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143257</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>370.5328682620216</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>223.6429207641112</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.6654861422326</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964586</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C8" t="n">
-        <v>1844.338003964586</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1486.072305357835</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3272.598239071861</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004519</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028707</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064744</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986296</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.4802848832069</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C10" t="n">
-        <v>403.4802848832069</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D10" t="n">
-        <v>253.3636454708711</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E10" t="n">
-        <v>105.450551888478</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F10" t="n">
-        <v>105.450551888478</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5001,13 +5001,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832069</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.4802848832069</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.953817504172</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.536647467212</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.547096569194</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.7545174256642</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,22 +5521,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2418223735984</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3287287912053</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4387812932949</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2426820081749</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,43 +5980,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1561.54872342426</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1272.131553387299</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606602</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>635.1948225204176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.8961096909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138415</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859347</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735989</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912058</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4387812932954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2426820081753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>135.2426820081753</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>532.5350811160199</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
         <v>382.4184417036842</v>
@@ -7563,58 +7563,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1452.382846024768</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1162.965675987807</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>934.9761250897898</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y43" t="n">
-        <v>714.1835459462596</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.3306680894888</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>820.3944851615819</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>670.2778457492461</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1170.979132919728</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>23.83108638657407</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.047316183739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.1578210480469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>126.5688841976865</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>61.709483930272</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>41.11201973523728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>40.25407754796408</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>18.49466557218867</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>84.77391660561995</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
-        <v>26.97729093373162</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26450,7 +26450,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617904</v>
+        <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658019</v>
       </c>
       <c r="E6" t="n">
-        <v>263671.6991256009</v>
+        <v>263324.3198712441</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.1609329565</v>
+        <v>588736.7816786</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329564</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329564</v>
+        <v>588736.7816785997</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329566</v>
+        <v>588736.7816785992</v>
       </c>
       <c r="J6" t="n">
-        <v>371552.958535679</v>
+        <v>371205.5792813221</v>
       </c>
       <c r="K6" t="n">
-        <v>589084.160932956</v>
+        <v>588736.7816785993</v>
       </c>
       <c r="L6" t="n">
-        <v>589084.1609329565</v>
+        <v>588736.7816785997</v>
       </c>
       <c r="M6" t="n">
-        <v>504029.1329974447</v>
+        <v>503681.7537430872</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329561</v>
+        <v>588736.7816785994</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.160932956</v>
+        <v>588736.7816785997</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.160932956</v>
+        <v>588736.7816785995</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,16 +26712,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>142.0138769831743</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.68448185888899</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754857</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>194.0453827816795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>126.9470448471905</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>110.6372784394545</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>10.46631197041967</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.89933974856214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>88.97131881835202</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>56.71025507623929</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>127.4767571572965</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.26439296306555</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>-1.469217481919458e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31998,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>710.7237876039896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>710.7237876039896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>361.5531172119652</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>428.6149474293395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>568.5897536819714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>285.360777932</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>568.5897536819714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>219.4190832899469</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>290.0605676494653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3130674.79778763</v>
+        <v>3132435.328090416</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>152.5938874041462</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3.657500457871633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>283.974680806263</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>155.5594962886086</v>
+        <v>155.5594962886089</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.47750671193654</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.08802744677254</v>
+        <v>58.28185552386401</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701366</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>61.39258527121172</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>135.468476159017</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>103.8784673763403</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2201.7190780849</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1832.756561144488</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1474.490862537738</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1088.702609939494</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>677.7167051498861</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>262.6442549948826</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410102</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2588.318918149022</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694471</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473092</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>764.3411331473092</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3552283577016</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.4459618444147</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C7" t="n">
-        <v>518.4459618444147</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="D7" t="n">
-        <v>518.4459618444147</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="E7" t="n">
-        <v>370.5328682620216</v>
+        <v>370.532868262022</v>
       </c>
       <c r="F7" t="n">
-        <v>223.6429207641112</v>
+        <v>223.6429207641117</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746544</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3272.598239071861</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.620491456084</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>751.950822890278</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779422</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955491</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976387</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
-        <v>139.3283057723577</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="H10" t="n">
-        <v>139.3283057723577</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5314,16 +5314,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5463,10 +5463,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1746.193029533436</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694706</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6126,25 +6126,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,10 +6174,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>198.744407872558</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>116.669167164811</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36.41624546988359</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="6">
@@ -26319,40 +26319,40 @@
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287558</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189203</v>
+      </c>
+      <c r="G4" t="n">
         <v>16046.58397189204</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189202</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617903</v>
+        <v>-811863.8817617905</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.8639658022</v>
       </c>
       <c r="D6" t="n">
         <v>516880.8639658019</v>
       </c>
       <c r="E6" t="n">
-        <v>263324.3198712441</v>
+        <v>263636.9612001654</v>
       </c>
       <c r="F6" t="n">
-        <v>588736.7816786</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="G6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="H6" t="n">
-        <v>588736.7816785997</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="I6" t="n">
-        <v>588736.7816785992</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="J6" t="n">
-        <v>371205.5792813221</v>
+        <v>371518.2206102431</v>
       </c>
       <c r="K6" t="n">
-        <v>588736.7816785993</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="L6" t="n">
-        <v>588736.7816785997</v>
+        <v>589049.423007521</v>
       </c>
       <c r="M6" t="n">
-        <v>503681.7537430872</v>
+        <v>503994.3950720089</v>
       </c>
       <c r="N6" t="n">
-        <v>588736.7816785994</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="O6" t="n">
-        <v>588736.7816785997</v>
+        <v>589049.4230075208</v>
       </c>
       <c r="P6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075208</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>142.0138769831743</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>345.5834682595414</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754857</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>126.9470448471905</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.46631197041967</v>
+        <v>10.4663119704193</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.71025507623929</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.26439296306555</v>
+        <v>38.07056488597408</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.469217481919458e-12</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,19 +31837,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31998,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35506,10 +35506,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
